--- a/converted-data/excel/vizitki_page_01.xlsx
+++ b/converted-data/excel/vizitki_page_01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Создаем профессиональные стильные макеты: доработка готового — около 💰 200 грн, с нуля — от 💰 400 грн.
+          <t>Создаем профессиональные стильные макеты: доработка готового — от 💰 200 грн, с нуля — от 💰 400 грн.
 Макет остается у вас 🔒 навсегда, оплачивается только при первом заказе! В PDF формате — профессионально, не как в Canva.
 📁 Портфолио: https://t.me/druk_portfolio</t>
         </is>
@@ -573,7 +573,7 @@
         <is>
           <t>Отлично, что макет есть!
 PSD, Canva и Figma — классные программы для своих задач, но для первоклассной полиграфии мы используем 🎯 векторные форматы — они дают идеальное качество при печати.
-Переведем ваш макет в профессиональный PDF/AI від 💰 200 грн, сохранив все детали.</t>
+Переведем ваш макет в профессиональный PDF/AI от 💰 200 грн, сохранив все детали.</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>🤝 Понимамаем, и это здорово! Мы очень ценим работу коллег.
+          <t>🤝 Понимаем, и это здорово! Мы очень ценим работу коллег.
 Мы используем другой подход — отвечаем за итоговое качество на 💯%, поэтому предпочитаем работать с векторными исходниками.
 Можем, конечно, попробовать напечатать и так, но тогда не сможем гарантировать четкость мелких деталей и текста. 
 Переведем в вектор от 💰 200 грн — и результат будет безупречным.</t>
@@ -640,7 +640,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Європейська крейдована матова 350г - супер-стандарт для будь-якого друку!
+          <t>Європейська крейдована матова 350г — супер-стандарт для будь-якого друку!
 ✨ Плюс 4 види ламінації: глянець, мат, софт тач, anti-scuff.
 Також великий вибір дизайнерських картонів і варіантів виконання.
 ❓ Який ефект потрібен?</t>
@@ -686,7 +686,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>✨ Есть изюминка: дизайнерские картоны, тиснение фольгой, белый тонер на темном, глянцевый лак на мате, кашировка в 2-3 слоя, крашенные торцы визитных карточек.
+          <t>✨ Есть изюминка: дизайнерские картоны, тиснение фольгой, белый тонер на темном, глянцевый лак на мате, кашировка в 2-3 слоя, крашеные торцы визитных карточек.
 Показать магию?
 📁 Портфолио: https://t.me/druk_portfolio</t>
         </is>
@@ -745,28 +745,426 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>🥇 Тиснение фольгой</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>тиснение,фольга,золото,серебро,фольгирование</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>🥇 Тиснення фольгою — наша гордість!
+✨ Золото: класичне, світле, червоне, рожеве, матове
+🌟 Срібло: дзеркальне, матове, голографічне
+🔥 Спецефекти: прозора глянцева, чорна глянцева
+💎 Кольорові пігментні: синій, жовтий, голубий
+📁 Портфолио: https://t.me/druk_portfolio</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>🥇 Тиснение фольгой — наша гордость!
+✨ Золото: классическое, светлое, красное, розовое, матовое
+🌟 Серебро: зеркальное, матовое, голографическое
+🔥 Спецэффекты: прозрачная глянцевая, черная глянцевая
+💎 Цветные пигментные: синий, желтый, голубой.
+📁 Портфолио: https://t.me/druk_portfolio</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>🎨 Дизайнерские картоны</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>дизайнерский картон,цветной картон,фактурный</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>🎨 Дизайнерські картони — це магія!
+🌈 Кольорові: чорний, сірий, крафт, червоний, синій
+📜 Фактурні: льон, молоток, велюр, металік
+💫 Перламутрові з мерехтінням
+⚡ Неонові: рожевий, жовтий, зелений, помаранчевий
+Щільність 270-350г. Доплата від 120 грн за 100 шт.
+Під кожен картон підбираємо оптимальну технологію друку!</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>🎨 Дизайнерские картоны — это магия!
+🌈 Цветные: черный, серый, крафт, красный, синий
+📜 Фактурные: лен, молоток, велюр, металлик
+💫 Перламутровые с переливом
+⚡ Неоновые: розовый, желтый, зеленый, оранжевый
+Плотность 270-350г. Доплата от 120 грн за 100 шт.
+Под каждый картон подбираем оптимальную технологию печати!</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>🏗️ Кашировка визиток</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>кашировка,склейка,многослойные,толстые визитки</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>🏗️ Каширування — створюємо товщі та ефектні візитки!
+📐 2 шари: загальна товщина 700г, відчутна вага в руках
+📏 3 шари: 1050г — преміум клас, неймовірно солідні
+🎨 Комбінуємо різні кольори картонів між собою
+🌈 Популярно: чорний-жовтий-чорний, крафт-білий-крафт
+💡 Можна робити контрастні торці для WOW-ефекту
+Доплата від +400 грн за 100 шт (2 шари).</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>🏗️ Кашировка — создаем толстые и эффектные визитки!
+📐 2 слоя: общая плотность 700г, ощутимый вес в руках
+📏 3 слоя: 1050г — премиум класс, невероятно солидные
+🎨 Комбинируем разные цвета картонов между собой
+🌈 Популярно: черный-желтый-черный, крафт-белый-крафт
+💡 Можно делать контрастные торцы для WOW-эффекта
+Доплата от +400 грн за 100 шт (2 слоя).</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>🖌️ Покраска торцов</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>торцы,краска торцов,цветные торцы,боковая покраска</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>🖌️ Фарбуємо торці візиток — ексклюзивна послуга!
+🌈 Любий колір за каталогом Pantone
+🔥 Популярні: золотий(бронза), срібний, помаранчевий, червоний, синій
+✨ Металізовані покриття для преміум-ефекту
+💎 Комбінуємо з кашируванням для контрастних ліній
+📐 Ідеально для товстих картонів від 500г
+Доплата +400 грн за 100 шт.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>🖌️ Красим торцы визиток — эксклюзивная услуга!
+🌈 Любой цвет по каталогу Pantone
+🔥 Популярные: золотой, серебряный, черный, красный
+✨ Металлизированные покрытия для премиум-эффекта
+💎 Комбинируем с кашировкой для контрастных линий
+📐 Идеально для толстых картонов от 500г
+Делаем вручную с ювелирной точностью!
+Доплата +400 грн за 100 шт.</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>🎯 Конгрев элементов</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>конгрев,выдавливание,рельеф,тиснение без фольги</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>🎯 Конгрев — об'ємне тиснення без фольги!
+⚡ Підняті елементи логотипа або тексту
+💫 Тактильний ефект — відчувається пальцями
+🔍 Елегантно на темних картонах
+🎨 Ідеально поєднується з фольговим тисненням
+📐 Мінімальна товщина ліній — 0.3мм
+Створюємо ексклюзивний рельєф для вашого бренду!
+Доплата +500 грн за 100 шт. (без урухування вартості кліше)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>🎯 Конгрев — объемное тиснение без фольги!
+⚡ Приподнятые элементы логотипа или текста
+💫 Тактильный эффект — ощущается пальцами
+🔍 Элегантно на темных картонах
+🎨 Идеально сочетается с фольговым тиснением
+📐 Минимальная толщина линий — 0.3мм
+Создаем эксклюзивный рельеф для вашего бренда!
+Доплата +500 грн за 100 шт. (без учета стоимости клише</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>🎪 Шелкография</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>шелкография,трафаретная печать,плотные краски</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>🎪 Шелкографія — особлива технологія друку!
+🎨 Надщільні фарби, що створюють рельєфний шар
+✨ Ефект "підняття" зображення над поверхнею
+🌟 Унікальні спецефекти: термографія, металік (бронза, срібло)
+💫 Неймовірна яскравість кольорів
+🔥 Ідеально для візиток на темних картонах
+Технологія для справжніх цінителів якості!
+📌 Прорахунок можливо зробити після отримання макету, треба розуміти кількість кольорів та всі технічні особливості</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>🎪 Шелкография — особая технология печати!
+🎨 Сверхплотные краски, создающие рельефный слой
+✨ Эффект "поднятия" изображения над поверхностью
+🌟 Уникальные спецэффекты: термография, металлик (бронза, серебро)
+💫 Невероятная яркость цветов
+🔥 Идеально для визиток на темных картонах
+Технология для настоящих ценителей качества!
+📌 Просчет можно сделать после получения макета, нужно понимать количество цветов и все технические особенности</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>⚡ Срочное изготовление</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>срочно,быстро,завтра,экспресс,за день</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>⚡ Експрес-виготовлення візиток — наша сила!
+🚀 За 4-6 годин — стандартні візитки до 500 шт
+🏃 За 1-2 доби — з ламінацією до 1000 шт</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>⚡ Экспресс-изготовление визиток — наша сила!
+🚀 За 4-6 часов — стандартные визитки до 500 шт
+🏃 За 1-2 дня — с ламинацией до 1000 шт</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>📏 Нестандартные размеры</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>размер,нестандартный размер,квадратные,узкие</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>📏 Виготовляємо візитки будь-яких розмірів та форми!
+📐 Стандарт: 90×50мм
+📱 Як кредитка: 85×54мм
+🔳 Квадратні: 50×50мм, 70×70мм
+📏 Вузькі: 100×40мм, 120×45мм
+🎨 Нестандартні: за вашими розмірами та формою
+Головне — щоб помістилися в гаманець!</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>📏 Изготавливаем визитки любых размеров и формы!
+📐 Стандарт: 90×50мм
+📱 Как кредитка: 85×54мм
+🔳 Квадратные: 50×50мм, 70×70мм
+📏 Узкие: 100×40мм, 120×45мм
+🎨 Нестандартные: по вашим размерам и формой
+Главное — чтобы поместились в кошелек!</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>🚚 Доставка визиток</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>доставка,курьер,новая почта,самовывоз</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>🚚 Доставляємо візитки по всій Україні!
+📦 Нова Пошта — від 75 грн, 1-2 дні
+🚕 Таксі по Харкову — 150 грн, у день готовності
+🏪 Самовивіз — безкоштовно, вул. Чернишевська, 8
+Упаковуємо у спеціальні коробки — візитки приїдуть ідеальними!
+При замовленні від 1000 грн доставка НП безкоштовна.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>🚚 Доставляем визитки по всей Украине!
+📦 Новая Почта — от 75 грн, 1-2 дня
+🚕 Такси по Харькову — 150 грн, в день готовности
+🏪 Самовывоз — бесплатно, ул. Чернышевская, 8
+Упаковываем в специальные коробки — визитки приедут идеальными!
+При заказе от 1000 грн доставка НП бесплатная.</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>визитки</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>💰Предоплата</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>оплата, предоплата, деньги</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>💳 Працюємо за передоплатою - це чесно і прозоро.
 🤝 Такий підхід дає нам змогу використовувати перевірені матеріали та відповідати за результат.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>💳 Работаем по предоплате — это честно и прозрачно.
 🤝 Такой подход позволяет нам использовать проверенные материалы и отвечать за результат.</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>8</v>
+      <c r="G18" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/converted-data/excel/vizitki_page_01.xlsx
+++ b/converted-data/excel/vizitki_page_01.xlsx
@@ -492,7 +492,7 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>✅ Звісно! Використовуємо крейдований папір щільністю 350 г/м² — це стандарт якості для візиток: тримає форму, має чистий білий колір і  матову фактуру. 
-💰 96 шт за ⚡ 1-2 дні — 158 грн або 💰 1000 шт тиражем — 920 грн у тіж строки. 
+💰 96 шт за ⚡ 1-2 дні — 158 грн або 💰 1000 шт тиражем — 920 грн у ті ж строки. 
 ❓ Чи маєте готовий для друку макет?</t>
         </is>
       </c>
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Создаем профессиональные стильные макеты: доработка готового — от 💰 200 грн, с нуля — от 💰 400 грн.
+          <t>Создаем профессиональные стильные макеты: доработка готового — около 💰 200 грн, с нуля — от 💰 400 грн.
 Макет остается у вас 🔒 навсегда, оплачивается только при первом заказе! В PDF формате — профессионально, не как в Canva.
 📁 Портфолио: https://t.me/druk_portfolio</t>
         </is>
